--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm Projects\Genome Assembly Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E596A1-F802-432D-9BE5-C7DA5229ED88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD13EF9E-B63E-4B91-8F97-489D6922E63E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7431" windowHeight="2289" activeTab="1" xr2:uid="{1E743057-DFC5-4F06-B4A1-1DBF6E46737B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7425" windowHeight="2295" activeTab="1" xr2:uid="{1E743057-DFC5-4F06-B4A1-1DBF6E46737B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>AGA</t>
   </si>
@@ -133,16 +133,19 @@
     <t>Number of Contigs</t>
   </si>
   <si>
-    <t>169*</t>
-  </si>
-  <si>
-    <t>390*</t>
-  </si>
-  <si>
     <t>kmer filtering</t>
   </si>
   <si>
-    <t>1,507*</t>
+    <t>43*</t>
+  </si>
+  <si>
+    <t>35*</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SPAdes*</t>
   </si>
 </sst>
 </file>
@@ -151,9 +154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +192,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -216,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,161 +255,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -424,7 +321,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
+      <xdr:colOff>58511</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -458,6 +355,67 @@
         <a:xfrm>
           <a:off x="6188529" y="2846614"/>
           <a:ext cx="7287986" cy="1660072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>529798</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BEB3F1-DBED-43BA-9A70-736A40F4B4D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="17522398" cy="3695700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,14 +740,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -803,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
@@ -817,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -831,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -842,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -856,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
         <v>8</v>
       </c>
@@ -864,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>6</v>
       </c>
@@ -872,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
         <v>0</v>
       </c>
@@ -885,495 +843,566 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDA23D6-9CF3-4D99-9B24-EA67483E8E59}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I8"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.61328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.61328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.3" x14ac:dyDescent="0.4">
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>593</v>
+      </c>
+      <c r="F3" s="6">
+        <v>593</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>584</v>
+      </c>
+      <c r="I3" s="6">
+        <v>584</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>164</v>
+      </c>
+      <c r="F4" s="6">
+        <v>118</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="6">
+        <v>140</v>
+      </c>
+      <c r="I4" s="6">
+        <v>98</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1593</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1220</v>
+      </c>
+      <c r="G5" s="6">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1023</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1004</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1226</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1048</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1048</v>
+      </c>
+      <c r="G6" s="6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6">
+        <v>867</v>
+      </c>
+      <c r="I6" s="6">
+        <v>867</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>131</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2652</v>
+      </c>
+      <c r="F7" s="6">
+        <v>808</v>
+      </c>
+      <c r="G7" s="8">
+        <v>169</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1507</v>
+      </c>
+      <c r="I7" s="8">
+        <v>390</v>
+      </c>
+      <c r="J7" s="8">
+        <v>13</v>
+      </c>
+      <c r="K7" s="8">
+        <v>4239</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>110</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2352</v>
+      </c>
+      <c r="F8" s="6">
+        <v>825</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>1048</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>1048</v>
+      </c>
+      <c r="J41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
-        <v>593</v>
-      </c>
-      <c r="F3" s="9">
-        <v>593</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10">
-        <v>584</v>
-      </c>
-      <c r="I3" s="10">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9">
-        <v>164</v>
-      </c>
-      <c r="F4" s="9">
-        <v>118</v>
-      </c>
-      <c r="G4" s="9">
-        <v>4</v>
-      </c>
-      <c r="H4" s="10">
-        <v>140</v>
-      </c>
-      <c r="I4" s="10">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1593</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1220</v>
-      </c>
-      <c r="G5" s="9">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1023</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="8">
-        <v>31</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1048</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1048</v>
-      </c>
-      <c r="G6" s="9">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10">
-        <v>867</v>
-      </c>
-      <c r="I6" s="10">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8">
-        <v>43</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>131</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2652</v>
-      </c>
-      <c r="F7" s="9">
-        <v>808</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="8">
-        <v>35</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46">
+        <v>1042</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46">
         <v>110</v>
       </c>
-      <c r="E8" s="9">
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47">
+        <v>1042</v>
+      </c>
+      <c r="J47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48">
         <v>2352</v>
       </c>
-      <c r="F8" s="9">
-        <v>825</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19">
-        <v>1048</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20">
-        <v>1048</v>
-      </c>
-      <c r="J20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25">
-        <v>1042</v>
-      </c>
-      <c r="J25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <v>1042</v>
-      </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>2352</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
